--- a/ExportedEstimate.xlsx
+++ b/ExportedEstimate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Microsoft Azure Estimate</t>
   </si>
@@ -38,7 +38,7 @@
     <t>Estimated upfront cost</t>
   </si>
   <si>
-    <t>Azure Functions</t>
+    <t>Azure Database for PostgreSQL</t>
   </si>
   <si>
     <t/>
@@ -47,19 +47,31 @@
     <t>West US</t>
   </si>
   <si>
-    <t>Premium tier, EP1: 1 Cores(s), 3.5 GB RAM, 250 GB Storage, 1 Pre-warmed instances, 1 Additional scaled out units</t>
+    <t>Single Server Deployment, General Purpose Tier, 1 Gen 5 (2 vCore) x 730 Hours, 5 GB Storage, 100 GB Additional Backup storage - LRS redundancy</t>
   </si>
   <si>
     <t>App Service</t>
   </si>
   <si>
-    <t>Premium V2 Tier; 1 P1V2 (1 Core(s), 3.5 GB RAM, 250 GB Storage) x 730 Hours; Linux OS</t>
+    <t>Basic Tier; 1 B1 (1 Core(s), 1.75 GB RAM, 10 GB Storage) x 730 Hours; Linux OS</t>
   </si>
   <si>
-    <t>Azure Database for PostgreSQL</t>
+    <t>Service Bus</t>
   </si>
   <si>
-    <t>Single Server Deployment, General Purpose Tier, 1 Gen 5 (2 vCore) x 730 Hours, 5 GB Storage, 100 GB Additional Backup storage - LRS redundancy</t>
+    <t>Basic tier: 0 million messaging operations/mo</t>
+  </si>
+  <si>
+    <t>Azure Functions</t>
+  </si>
+  <si>
+    <t>Consumption tier, 128 MB memory, 100 milliseconds execution time, 0 executions/mo</t>
+  </si>
+  <si>
+    <t>Storage Accounts</t>
+  </si>
+  <si>
+    <t>Block Blob Storage, General Purpose V2, LRS Redundancy, Hot Access Tier, 1,000 GB Capacity - Pay as you go, 10 x 10,000 Write operations, 10 x 10,000 List and Create Container Operations, 10 x 10,000 Read operations, 100,000 Archive High Priority Read, 1 x 10,000 Other operations. 1,000 GB Data Retrieval, 1,000 GB Archive High Priority Retrieval, 1,000 GB Data Write</t>
   </si>
   <si>
     <t>Support</t>
@@ -86,7 +98,7 @@
     <t>All prices shown are in United States – Dollar ($) USD. This is a summary estimate, not a quote. For up to date pricing information please visit https://azure.microsoft.com/pricing/calculator/</t>
   </si>
   <si>
-    <t>This estimate was created at 11/11/2021 1:28:16 PM UTC.</t>
+    <t>This estimate was created at 11/15/2021 1:53:39 PM UTC.</t>
   </si>
 </sst>
 </file>
@@ -353,7 +365,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="5">
-        <v>310.542</v>
+        <v>162.194</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -393,7 +405,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="5">
-        <v>83.95</v>
+        <v>13.14</v>
       </c>
       <c r="F5" s="5">
         <v>0</v>
@@ -433,7 +445,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="5">
-        <v>162.194</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
         <v>0</v>
@@ -463,10 +475,14 @@
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="13" t="s">
-        <v>16</v>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -496,16 +512,24 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5">
+        <v>21.9484</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -528,16 +552,20 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>9</v>
+      <c r="E9" s="5">
+        <v>0</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -564,10 +592,10 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="7"/>
@@ -595,15 +623,13 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="14" t="s">
-        <v>21</v>
+      <c r="D11" s="13" t="s">
+        <v>23</v>
       </c>
-      <c r="E11" s="15">
-        <v>556.686</v>
+      <c r="E11" s="12" t="s">
+        <v>9</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="7"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -629,8 +655,12 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="7"/>
       <c r="H12" s="1"/>
@@ -654,14 +684,18 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
-        <v>22</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="D13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="15">
+        <v>197.2824</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -684,14 +718,12 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="7"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -714,14 +746,14 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="s">
-        <v>24</v>
+      <c r="A15" s="13" t="s">
+        <v>26</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="7"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -744,7 +776,9 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="16"/>
+      <c r="A16" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -772,12 +806,14 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="7"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -800,12 +836,12 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="7"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -28327,8 +28363,8 @@
   <mergeCells>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
